--- a/me/3.project/1.Xay-dung-cau-truc-project.xlsx
+++ b/me/3.project/1.Xay-dung-cau-truc-project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\3.project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E8D428-5F46-4B0E-88A2-26163229E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4B138D-11B1-4096-804F-CD7721AAB7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t>構成</t>
   </si>
@@ -802,6 +802,9 @@
   </si>
   <si>
     <t>Check browser tự động được refresh</t>
+  </si>
+  <si>
+    <t>fonts</t>
   </si>
 </sst>
 </file>
@@ -2924,6 +2927,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>524847</xdr:colOff>
+      <xdr:row>669</xdr:row>
+      <xdr:rowOff>38878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126352</xdr:colOff>
+      <xdr:row>1026</xdr:row>
+      <xdr:rowOff>38877</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F67E828-3A1A-2026-4410-0EA56F0704C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1137168" y="130084286"/>
+          <a:ext cx="1438470" cy="69396428"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2939,7 +2995,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2992,7 +3048,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3045,7 +3101,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3092,13 +3148,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3151,7 +3207,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3198,13 +3254,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>110308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>217678</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>89172</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3247,13 +3303,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3300,13 +3356,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3353,13 +3409,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>136938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>113455</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>34232</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3402,13 +3458,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3455,13 +3511,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3772,8 +3828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A234" sqref="A234:G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6664,10 +6720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53B619F-B116-48CA-8794-667270344181}">
-  <dimension ref="A2:V998"/>
+  <dimension ref="A2:V1032"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O1018" sqref="O1018"/>
+    <sheetView topLeftCell="A1013" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L1030" sqref="L1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8712,6 +8768,171 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1017" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+      <c r="G1017" s="3"/>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1018" s="4"/>
+      <c r="C1018" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1018" s="9"/>
+      <c r="E1018" s="9"/>
+      <c r="F1018" s="9"/>
+      <c r="G1018" s="5"/>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1019" s="4"/>
+      <c r="C1019" s="9"/>
+      <c r="D1019" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1019" s="9"/>
+      <c r="F1019" s="9"/>
+      <c r="G1019" s="5"/>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1020" s="4"/>
+      <c r="C1020" s="9"/>
+      <c r="D1020" s="9"/>
+      <c r="E1020" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1020" s="9"/>
+      <c r="G1020" s="5"/>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1021" s="4"/>
+      <c r="C1021" s="9"/>
+      <c r="D1021" s="9"/>
+      <c r="E1021" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1021" s="9"/>
+      <c r="G1021" s="5"/>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1022" s="4"/>
+      <c r="C1022" s="9"/>
+      <c r="D1022" s="9"/>
+      <c r="E1022" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1022" s="9"/>
+      <c r="G1022" s="5"/>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1023" s="4"/>
+      <c r="C1023" s="9"/>
+      <c r="D1023" s="9"/>
+      <c r="E1023" s="9"/>
+      <c r="F1023" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1023" s="5"/>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1024" s="4"/>
+      <c r="C1024" s="9"/>
+      <c r="D1024" s="9"/>
+      <c r="E1024" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1024" s="9"/>
+      <c r="G1024" s="5"/>
+    </row>
+    <row r="1025" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1025" s="4"/>
+      <c r="C1025" s="9"/>
+      <c r="D1025" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1025" s="9"/>
+      <c r="F1025" s="9"/>
+      <c r="G1025" s="5"/>
+    </row>
+    <row r="1026" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1026" s="4"/>
+      <c r="C1026" s="9"/>
+      <c r="D1026" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1026" s="9"/>
+      <c r="F1026" s="9"/>
+      <c r="G1026" s="5"/>
+    </row>
+    <row r="1027" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1027" s="4"/>
+      <c r="C1027" s="9"/>
+      <c r="D1027" s="9"/>
+      <c r="E1027" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1027" s="9"/>
+      <c r="G1027" s="5"/>
+    </row>
+    <row r="1028" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1028" s="4"/>
+      <c r="C1028" s="9"/>
+      <c r="D1028" s="9"/>
+      <c r="E1028" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1028" s="9"/>
+      <c r="G1028" s="5"/>
+    </row>
+    <row r="1029" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1029" s="4"/>
+      <c r="C1029" s="9"/>
+      <c r="D1029" s="9"/>
+      <c r="E1029" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1029" s="9"/>
+      <c r="G1029" s="5"/>
+    </row>
+    <row r="1030" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1030" s="4"/>
+      <c r="C1030" s="9"/>
+      <c r="D1030" s="9"/>
+      <c r="E1030" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1030" s="9"/>
+      <c r="G1030" s="5"/>
+    </row>
+    <row r="1031" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1031" s="4"/>
+      <c r="C1031" s="9"/>
+      <c r="D1031" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1031" s="9"/>
+      <c r="F1031" s="9"/>
+      <c r="G1031" s="5"/>
+    </row>
+    <row r="1032" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1032" s="6"/>
+      <c r="C1032" s="7"/>
+      <c r="D1032" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1032" s="7"/>
+      <c r="F1032" s="7"/>
+      <c r="G1032" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8721,10 +8942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A9E42C-7790-43B1-BDF9-329FE8A136D6}">
-  <dimension ref="A2:M99"/>
+  <dimension ref="A2:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8882,7 +9103,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="11" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -8891,126 +9112,126 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -9020,72 +9241,62 @@
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -9101,7 +9312,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
@@ -9117,7 +9328,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -9133,7 +9344,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -9149,7 +9360,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -9165,7 +9376,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -9181,7 +9392,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -9197,7 +9408,7 @@
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -9212,8 +9423,8 @@
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
-        <v>206</v>
+      <c r="B50" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -9229,7 +9440,7 @@
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -9244,8 +9455,8 @@
       <c r="M51" s="5"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>173</v>
+      <c r="B52" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -9261,7 +9472,7 @@
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -9277,7 +9488,7 @@
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -9293,7 +9504,7 @@
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -9309,7 +9520,7 @@
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -9325,7 +9536,7 @@
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -9341,7 +9552,7 @@
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -9357,7 +9568,7 @@
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="4" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -9372,8 +9583,8 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
-        <v>208</v>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -9389,7 +9600,7 @@
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
@@ -9404,7 +9615,9 @@
       <c r="M61" s="5"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
+      <c r="B62" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -9419,7 +9632,7 @@
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -9434,9 +9647,7 @@
       <c r="M63" s="5"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -9451,7 +9662,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -9467,7 +9678,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B66" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
@@ -9483,7 +9694,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -9498,80 +9709,112 @@
       <c r="M67" s="5"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="4" t="s">
+      <c r="C91" s="2"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
+      <c r="C92" s="9"/>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+      <c r="C98" s="9"/>
+      <c r="D98" s="5"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="8"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C99" s="7"/>
+      <c r="D99" s="8"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>220</v>
       </c>
     </row>
